--- a/additional-ro-crate-metadata.xlsx
+++ b/additional-ro-crate-metadata.xlsx
@@ -3,17 +3,18 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10514"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8166FC66-6C3F-DB47-85B0-5F4E8EB60A47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E0757A5-F602-FB41-8C93-BC2C6BD175D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1060" yWindow="760" windowWidth="29060" windowHeight="18880" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1060" yWindow="760" windowWidth="29060" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="@context" sheetId="2" r:id="rId1"/>
-    <sheet name="@type=Dataset" sheetId="3" r:id="rId2"/>
-    <sheet name="@type=File" sheetId="4" r:id="rId3"/>
-    <sheet name="RepositoryObject" sheetId="6" r:id="rId4"/>
-    <sheet name="@type=DigitalFormat" sheetId="5" r:id="rId5"/>
-    <sheet name="SheetDefaults" sheetId="7" r:id="rId6"/>
+    <sheet name="@type=Person" sheetId="8" r:id="rId1"/>
+    <sheet name="@context" sheetId="2" r:id="rId2"/>
+    <sheet name="@type=Dataset" sheetId="3" r:id="rId3"/>
+    <sheet name="@type=File" sheetId="4" r:id="rId4"/>
+    <sheet name="RepositoryObject" sheetId="6" r:id="rId5"/>
+    <sheet name="@type=DigitalFormat" sheetId="5" r:id="rId6"/>
+    <sheet name="SheetDefaults" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5856" uniqueCount="1803">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6001" uniqueCount="1804">
   <si>
     <t>@id</t>
   </si>
@@ -5442,6 +5443,9 @@
   </si>
   <si>
     <t>{"@type": "RepositoryObject", "modality":  { "@id": "https://purl.archive.org/language-data-commons/terms#WrittenLanguage", "@type": "DefinedTerm", "name": "WrittenLanguage", "description": "The resource contains data for which the medium of interaction was writing.", "inDefinedTermSet": { "@id": "https://purl.archive.org/language-data-commons/terms#CommunicationModeTerms" } }, "linguisticGenre": { "@id": "https://purl.archive.org/language-data-commons/terms#Drama", "@type": "DefinedTerm", "name": "Drama", "sameAs": { "@id": "http://www.language-archives.org/REC/type-20020628.html#text/drama" }, "description": "A planned, creative, rendition of discourse with two or more participants intended for presentation to an audience.", "inDefinedTermSet": { "@id": "https://purl.archive.org/language-data-commons/terms#CommunicationGenreTerms" } }}</t>
+  </si>
+  <si>
+    <t>Person</t>
   </si>
 </sst>
 </file>
@@ -5828,6 +5832,606 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCDCC1A4-CFA7-8942-B895-E2F05A544DDB}">
+  <dimension ref="A1:C72"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="32.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>1803</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1522</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>1803</v>
+      </c>
+      <c r="B3" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>1803</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1785</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>1803</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1515</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>1803</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1780</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>1803</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1481</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>1803</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1293</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>1803</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1690</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>1803</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1450</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>1803</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1240</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>1803</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>1803</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1572</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>1803</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1563</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>1803</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>1803</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1770</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>1803</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1414</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>1803</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1788</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>1803</v>
+      </c>
+      <c r="B19" t="s">
+        <v>1305</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>1803</v>
+      </c>
+      <c r="B20" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>1803</v>
+      </c>
+      <c r="B21" t="s">
+        <v>1595</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>1803</v>
+      </c>
+      <c r="B22" t="s">
+        <v>1544</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>1803</v>
+      </c>
+      <c r="B23" t="s">
+        <v>1525</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>1803</v>
+      </c>
+      <c r="B24" t="s">
+        <v>1685</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>1803</v>
+      </c>
+      <c r="B25" t="s">
+        <v>1778</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>1803</v>
+      </c>
+      <c r="B26" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>1803</v>
+      </c>
+      <c r="B27" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>1803</v>
+      </c>
+      <c r="B28" t="s">
+        <v>1282</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>1803</v>
+      </c>
+      <c r="B29" t="s">
+        <v>1310</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>1803</v>
+      </c>
+      <c r="B30" t="s">
+        <v>1261</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>1803</v>
+      </c>
+      <c r="B31" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>1803</v>
+      </c>
+      <c r="B32" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>1803</v>
+      </c>
+      <c r="B33" t="s">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>1803</v>
+      </c>
+      <c r="B34" t="s">
+        <v>1783</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>1803</v>
+      </c>
+      <c r="B35" t="s">
+        <v>1782</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>1803</v>
+      </c>
+      <c r="B36" t="s">
+        <v>1777</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>1803</v>
+      </c>
+      <c r="B37" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>1803</v>
+      </c>
+      <c r="B38" t="s">
+        <v>1725</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>1803</v>
+      </c>
+      <c r="B39" t="s">
+        <v>1784</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>1803</v>
+      </c>
+      <c r="B40" t="s">
+        <v>1328</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>1803</v>
+      </c>
+      <c r="B41" t="s">
+        <v>1502</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>1803</v>
+      </c>
+      <c r="B42" t="s">
+        <v>1680</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>1803</v>
+      </c>
+      <c r="B43" t="s">
+        <v>1787</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>1803</v>
+      </c>
+      <c r="B44" t="s">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>1803</v>
+      </c>
+      <c r="B45" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>1803</v>
+      </c>
+      <c r="B46" t="s">
+        <v>1187</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>1803</v>
+      </c>
+      <c r="B47" t="s">
+        <v>1779</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>1803</v>
+      </c>
+      <c r="B48" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>1803</v>
+      </c>
+      <c r="B49" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>1803</v>
+      </c>
+      <c r="B50" t="s">
+        <v>1296</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>1803</v>
+      </c>
+      <c r="B51" t="s">
+        <v>1425</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>1803</v>
+      </c>
+      <c r="B52" t="s">
+        <v>1630</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>1803</v>
+      </c>
+      <c r="B53" t="s">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>1803</v>
+      </c>
+      <c r="B54" t="s">
+        <v>1786</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>1803</v>
+      </c>
+      <c r="B55" t="s">
+        <v>1790</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>1803</v>
+      </c>
+      <c r="B56" t="s">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>1803</v>
+      </c>
+      <c r="B57" t="s">
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>1803</v>
+      </c>
+      <c r="B58" t="s">
+        <v>1463</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>1803</v>
+      </c>
+      <c r="B59" t="s">
+        <v>1699</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>1803</v>
+      </c>
+      <c r="B60" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>1803</v>
+      </c>
+      <c r="B61" t="s">
+        <v>1589</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>1803</v>
+      </c>
+      <c r="B62" t="s">
+        <v>1740</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>1803</v>
+      </c>
+      <c r="B63" t="s">
+        <v>1552</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>1803</v>
+      </c>
+      <c r="B64" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>1803</v>
+      </c>
+      <c r="B65" t="s">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>1803</v>
+      </c>
+      <c r="B66" t="s">
+        <v>1586</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>1803</v>
+      </c>
+      <c r="B67" t="s">
+        <v>1781</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>1803</v>
+      </c>
+      <c r="B68" t="s">
+        <v>1477</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>1803</v>
+      </c>
+      <c r="B69" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>1803</v>
+      </c>
+      <c r="B70" t="s">
+        <v>1321</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>1803</v>
+      </c>
+      <c r="B71" t="s">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>1803</v>
+      </c>
+      <c r="B72" t="s">
+        <v>1233</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C343">
+    <sortCondition ref="B2:B343"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B1"/>
   <sheetViews>
@@ -5853,7 +6457,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E2"/>
   <sheetViews>
@@ -5904,7 +6508,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G310"/>
   <sheetViews>
@@ -13054,12 +13658,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44AEFB6C-D8C9-DE44-99B5-D03B29B41798}">
   <dimension ref="A1:AE307"/>
   <sheetViews>
-    <sheetView topLeftCell="R1" workbookViewId="0">
-      <selection activeCell="AF1" sqref="AF1"/>
+    <sheetView topLeftCell="F9" workbookViewId="0">
+      <selection activeCell="K32" sqref="K32:K307"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -14265,11 +14869,11 @@
         <v>1030</v>
       </c>
       <c r="I14" t="s">
-        <v>1030</v>
+        <v>1125</v>
       </c>
       <c r="J14" t="str">
         <f t="shared" si="3"/>
-        <v>"Munday Anthony (?)"</v>
+        <v>"Munday Anthony"</v>
       </c>
       <c r="L14" t="str">
         <f t="shared" si="2"/>
@@ -40792,7 +41396,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:C5"/>
   <sheetViews>
@@ -40864,11 +41468,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6672B4A2-0281-344B-8F5B-100B91ED7BA5}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
